--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_1_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_1_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.30000000000005</v>
+        <v>22.34000000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12733186399916e-07</v>
+        <v>1.099376145674569e-11</v>
       </c>
       <c r="I2" t="n">
-        <v>2.12733186399916e-07</v>
+        <v>1.099376145674569e-11</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.01650800582569</v>
+        <v>63.0751608361858</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[34.628057778319885, 69.4049582333315]</t>
+          <t>[48.849320645998105, 77.3010010263735]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.865938155682812e-07</v>
+        <v>1.590239051552089e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>2.865938155682812e-07</v>
+        <v>1.590239051552089e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964118</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 2.0063424554457336]</t>
+          <t>[1.415131825941348, 1.8679740102425804]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.07701181306652e-10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.07701181306652e-10</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>59.3364152694818</v>
+        <v>62.69549740817033</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.501332509549854, 70.17149802941374]</t>
+          <t>[53.64355882976873, 71.74743598657193]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220446049250313e-14</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5631631631632</v>
+        <v>16.50342342342346</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.17917917917921</v>
+        <v>15.69837837837841</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.94714714714718</v>
+        <v>17.30846846846851</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.30000000000005</v>
+        <v>22.34000000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.975354546601693e-09</v>
+        <v>6.155486897974072e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.975354546601693e-09</v>
+        <v>6.155486897974072e-09</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>61.79101882828715</v>
+        <v>57.05317747093013</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[41.377390534654, 82.2046471219203]</t>
+          <t>[38.6618786805533, 75.44447626130696]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.244084245095479e-07</v>
+        <v>1.335941548497033e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>2.244084245095479e-07</v>
+        <v>1.335941548497033e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>2.031500354573581</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.691868716347658, 2.371131992799503]</t>
+          <t>[1.528342372016657, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.27675647831893e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.27675647831893e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>61.74709270813635</v>
+        <v>57.74415297076485</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.896605985782664, 72.59757943049004]</t>
+          <t>[47.36416925780092, 68.12413668372878]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>1.310063169057685e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>15.08988988988992</v>
+        <v>15.60892892892896</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.88448448448451</v>
+        <v>14.31191191191195</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.29529529529532</v>
+        <v>16.90594594594598</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.30000000000005</v>
+        <v>22.34000000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.490103260896717e-09</v>
+        <v>1.600923281719346e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>5.490103260896717e-09</v>
+        <v>1.600923281719346e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>57.47960273541402</v>
+        <v>47.74748100188325</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[36.57064047532622, 78.38856499550181]</t>
+          <t>[27.453008192853773, 68.04195381091273]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.51222183863986e-06</v>
+        <v>2.18443779922417e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.51222183863986e-06</v>
+        <v>2.18443779922417e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.383710942363427</v>
+        <v>2.459184639746966</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.03150035457358, 2.735921530153273]</t>
+          <t>[2.0440793041375036, 2.8742899753564277]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="T4" t="n">
-        <v>60.77039715078591</v>
+        <v>48.96312447498212</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.04703939482853, 71.49375490674329]</t>
+          <t>[38.671128325648375, 59.25512062431587]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>1.947775274402375e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>1.947775274402375e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>13.83983983983987</v>
+        <v>13.59631631631635</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.58978978978982</v>
+        <v>12.12040040040043</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.08988988988992</v>
+        <v>15.07223223223227</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.30000000000005</v>
+        <v>22.34000000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.630450279816898e-08</v>
+        <v>5.208644443521759e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.630450279816898e-08</v>
+        <v>5.208644443521759e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.56757812689231</v>
+        <v>42.1479599814714</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[36.24500492820765, 68.89015132557698]</t>
+          <t>[21.366522345885663, 62.92939761705714]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.904176014759344e-08</v>
+        <v>0.000178920427601259</v>
       </c>
       <c r="O5" t="n">
-        <v>5.904176014759344e-08</v>
+        <v>0.000178920427601259</v>
       </c>
       <c r="P5" t="n">
-        <v>3.100711067507043</v>
+        <v>3.012658420559582</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.7233425805893505, 3.4780795544247356]</t>
+          <t>[2.408868841491273, 3.6164479996278907]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>4.454214774796128e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.454214774796128e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>65.20002309380845</v>
+        <v>58.22235438480802</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[54.56587180344826, 75.83417438416865]</t>
+          <t>[45.762259163077175, 70.68244960653887]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.358868738700949e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>3.358868738700949e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>11.29509509509512</v>
+        <v>11.62842842842845</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.955755755755778</v>
+        <v>9.48164164164166</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.63443443443446</v>
+        <v>13.77521521521525</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.403016164469584e-06</v>
+        <v>8.640332671561168e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.403016164469584e-06</v>
+        <v>8.640332671561168e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>58.00488145572568</v>
+        <v>46.7228571343253</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[34.621188350927, 81.38857456052436]</t>
+          <t>[31.107592072489844, 62.33812219616076]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.318588837459174e-06</v>
+        <v>2.852413820697564e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>9.318588837459174e-06</v>
+        <v>2.852413820697564e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.905737349266235</v>
+        <v>-3.00636894577762</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.3711584831313894, -2.4403162154010802]</t>
+          <t>[-3.3963163822592355, -2.6164215092960044]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>59.27695382442413</v>
+        <v>47.52353662405681</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.945654313351014, 72.60825333549724]</t>
+          <t>[38.05126810044956, 56.99580514766406]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.464006693652209e-11</v>
+        <v>3.745892485085278e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.464006693652209e-11</v>
+        <v>3.745892485085278e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>11.50606606606627</v>
+        <v>11.85191191191212</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.663103103103278</v>
+        <v>10.31463463463482</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.34902902902927</v>
+        <v>13.38918918918942</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.787040598306589e-10</v>
+        <v>1.256064663390788e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.787040598306589e-10</v>
+        <v>1.256064663390788e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>61.06377828609158</v>
+        <v>56.24369345565079</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[44.39661285000027, 77.7309437221829]</t>
+          <t>[38.936444707376396, 73.55094220392519]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.801815224273696e-09</v>
+        <v>4.827779220839545e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>2.801815224273696e-09</v>
+        <v>4.827779220839545e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>2.987500521431735</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.685605731897581, 3.2893953109658898]</t>
+          <t>[2.698184681461504, 3.377447957913351]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,27 +1053,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.56701962049296</v>
+        <v>60.86224541748998</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.65029282797562, 64.48374641301031]</t>
+          <t>[50.309285288924706, 71.41520554605526]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.887379141862766e-14</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>13.05017017017041</v>
+        <v>12.79411411411434</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.85473473473495</v>
+        <v>11.4551951951954</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.24560560560587</v>
+        <v>14.13303303303328</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.092108956716856e-10</v>
+        <v>1.002115082360255e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>5.092108956716856e-10</v>
+        <v>1.002115082360255e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>61.24874502609956</v>
+        <v>51.17428809211368</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[41.601023194116536, 80.89646685808259]</t>
+          <t>[31.347664574420364, 71.000911609807]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.203283812589717e-07</v>
+        <v>4.735798172283978e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.203283812589717e-07</v>
+        <v>4.735798172283978e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>2.622710984077965</v>
+        <v>2.937184723176043</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.3082372449798885, 2.9371847231760424]</t>
+          <t>[2.4717635893108882, 3.4026058570411974]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>61.91435809819936</v>
+        <v>54.21878257551738</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[51.629265777924445, 72.19945041847427]</t>
+          <t>[42.56589103981702, 65.87167411121774]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>3.818945160105613e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>3.818945160105613e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>14.49465465465492</v>
+        <v>13.19083083083106</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.24940940940965</v>
+        <v>11.35601601601621</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.73989989990018</v>
+        <v>15.02564564564591</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.393260076897889e-08</v>
+        <v>3.125646630408596e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>6.393260076897889e-08</v>
+        <v>3.125646630408596e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.70466679045042</v>
+        <v>49.81561436897812</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.64288103062077, 68.76645255028006]</t>
+          <t>[31.786015353585597, 67.84521338437065]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.95929305518905e-06</v>
+        <v>1.374763645367594e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>3.95929305518905e-06</v>
+        <v>1.374763645367594e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>2.496921488438735</v>
+        <v>2.72334258058935</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.1195530015210418, 2.8742899753564277]</t>
+          <t>[2.333395144107734, 3.113290017070966]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>54.16067600787149</v>
+        <v>48.70309027359311</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.03178418045472, 64.28956783528827]</t>
+          <t>[38.92990288219251, 58.4762776649937]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.840572387365683e-14</v>
+        <v>4.631850458736153e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>4.840572387365683e-14</v>
+        <v>4.631850458736153e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>14.99275275275302</v>
+        <v>14.0338538538541</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.4984584584587</v>
+        <v>12.49657657657679</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.48704704704734</v>
+        <v>15.5711311311314</v>
       </c>
     </row>
     <row r="10">
@@ -1269,39 +1269,39 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.190766457133009e-10</v>
+        <v>1.194785714808688e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>2.190766457133009e-10</v>
+        <v>1.194785714808688e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>67.29661710083653</v>
+        <v>56.21156792200861</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[45.48443909569775, 89.1087951059753]</t>
+          <t>[36.94970700226878, 75.47342884174843]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.501140476367624e-07</v>
+        <v>4.740944825609716e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.501140476367624e-07</v>
+        <v>4.740944825609716e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>2.283079345852042</v>
+        <v>2.232763547596349</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 2.5975530849501194]</t>
+          <t>[1.9057108589343477, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1311,27 +1311,27 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.18614889559987</v>
+        <v>51.94267022017806</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[58.083984207734204, 80.28831358346554]</t>
+          <t>[42.09099516073857, 61.794345279617545]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.66053886991358e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.66053886991358e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>15.83951951951981</v>
+        <v>15.96784784784813</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.59427427427454</v>
+        <v>14.67851851851877</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.08476476476507</v>
+        <v>17.25717717717748</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.95182164489205e-07</v>
+        <v>4.631357540296754e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.95182164489205e-07</v>
+        <v>4.631357540296754e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.83537978923328</v>
+        <v>48.74192743814358</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[29.055975859687337, 68.61478371877922]</t>
+          <t>[21.41644541767171, 76.06740945861546]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.006978758755217e-05</v>
+        <v>0.0008068716628921724</v>
       </c>
       <c r="O11" t="n">
-        <v>1.006978758755217e-05</v>
+        <v>0.0008068716628921724</v>
       </c>
       <c r="P11" t="n">
-        <v>2.19502669890458</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.7547634641672714, 2.6352899336418885]</t>
+          <t>[1.9308687580621955, 2.962342622303889]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.563016631209393e-13</v>
+        <v>2.124078690712849e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>4.563016631209393e-13</v>
+        <v>2.124078690712849e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>56.31787623326548</v>
+        <v>63.28468118345029</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.557667476330295, 67.07808499020067]</t>
+          <t>[49.396872160257544, 77.17249020664303]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>9.703349235223868e-14</v>
+        <v>7.116751632452178e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>9.703349235223868e-14</v>
+        <v>7.116751632452178e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>16.18818818818848</v>
+        <v>15.12482482482509</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.44484484484511</v>
+        <v>13.09165165165188</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.93153153153186</v>
+        <v>17.1579979979983</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.874157243430545e-08</v>
+        <v>3.248421087675979e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>6.874157243430545e-08</v>
+        <v>3.248421087675979e-09</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>60.17962143075491</v>
+        <v>51.67145350644154</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[38.88119989749487, 81.47804296401496]</t>
+          <t>[34.128434534493366, 69.21447247838972]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>8.960105541966357e-07</v>
+        <v>3.934068810718117e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>8.960105541966357e-07</v>
+        <v>3.934068810718117e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>1.817658211986887</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 2.19502669890458]</t>
+          <t>[1.603816069400195, 2.308237244979888]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.333155807969888e-12</v>
+        <v>1.398881011027697e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>1.333155807969888e-12</v>
+        <v>1.398881011027697e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>64.89753360540104</v>
+        <v>58.22123472598854</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[52.3812842813917, 77.41378292941037]</t>
+          <t>[48.75262522161407, 67.68984423036302]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.314504061156185e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>1.314504061156185e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>17.6824824824828</v>
+        <v>17.05881881881912</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.18818818818848</v>
+        <v>15.67031031031058</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.17677677677712</v>
+        <v>18.44732732732765</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>9.390741517734114e-10</v>
+        <v>7.615129549165545e-08</v>
       </c>
       <c r="I13" t="n">
-        <v>9.390741517734114e-10</v>
+        <v>7.615129549165545e-08</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>52.14365686058563</v>
+        <v>56.97758232037678</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[37.62064747131241, 66.66666624985885]</t>
+          <t>[36.87813611489189, 77.07702852586168]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.628448957433307e-09</v>
+        <v>8.410270864178671e-07</v>
       </c>
       <c r="O13" t="n">
-        <v>4.628448957433307e-09</v>
+        <v>8.410270864178671e-07</v>
       </c>
       <c r="P13" t="n">
-        <v>1.754763464167272</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 2.0943951023931966]</t>
+          <t>[1.3522370781217337, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.472155730652958e-13</v>
+        <v>5.092415378271653e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>1.472155730652958e-13</v>
+        <v>5.092415378271653e-11</v>
       </c>
       <c r="T13" t="n">
-        <v>52.63920983862201</v>
+        <v>57.11927290355061</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[43.48366865138513, 61.794751025858886]</t>
+          <t>[45.24851105532488, 68.99003475177634]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>1.375566327510569e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>4.440892098500626e-15</v>
+        <v>1.375566327510569e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>17.93153153153185</v>
+        <v>17.80266266266297</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.58666666666696</v>
+        <v>16.16620620620649</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.27639639639674</v>
+        <v>19.43911911911945</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.88000000000045</v>
+        <v>24.77000000000043</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>5.533976240146288e-06</v>
+        <v>6.916254446931447e-08</v>
       </c>
       <c r="I14" t="n">
-        <v>5.533976240146288e-06</v>
+        <v>6.916254446931447e-08</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>45.70482078530948</v>
+        <v>56.75172412104313</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[27.83226794857871, 63.57737362204025]</t>
+          <t>[36.187668591697204, 77.31577965038905]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>5.562660812197251e-06</v>
+        <v>1.405514270080843e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>5.562660812197251e-06</v>
+        <v>1.405514270080843e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>1.478026573760965</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 1.9686056067539663]</t>
+          <t>[1.427710775505271, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.473514375544994e-07</v>
+        <v>1.533373428230789e-11</v>
       </c>
       <c r="S14" t="n">
-        <v>2.473514375544994e-07</v>
+        <v>1.533373428230789e-11</v>
       </c>
       <c r="T14" t="n">
-        <v>60.63879642455649</v>
+        <v>59.79739330031348</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.960162509662716, 72.31743033945025]</t>
+          <t>[48.02181242092027, 71.57297417970669]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.254552017826427e-13</v>
+        <v>2.55573340268711e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>1.254552017826427e-13</v>
+        <v>2.55573340268711e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>19.02734734734769</v>
+        <v>17.50512512512543</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.08476476476507</v>
+        <v>15.86866866866895</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.96992992993031</v>
+        <v>19.14158158158192</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_1_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_1_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.34000000000005</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.099376145674569e-11</v>
+        <v>8.656002170592814e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.099376145674569e-11</v>
+        <v>8.656002170592814e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>63.0751608361858</v>
+        <v>57.87330693997969</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[48.849320645998105, 77.3010010263735]</t>
+          <t>[38.828003369773654, 76.91861051018573]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.590239051552089e-11</v>
+        <v>2.069275724103647e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.590239051552089e-11</v>
+        <v>2.069275724103647e-07</v>
       </c>
       <c r="P2" t="n">
         <v>1.641552918091964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 1.8679740102425804]</t>
+          <t>[1.2516054816103477, 2.0315003545735806]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.00259850106022e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.00259850106022e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>62.69549740817033</v>
+        <v>60.90799069093606</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[53.64355882976873, 71.74743598657193]</t>
+          <t>[49.28155038425973, 72.53443099761239]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>9.436895709313831e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>9.436895709313831e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>16.50342342342346</v>
+        <v>16.64378378378385</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.69837837837841</v>
+        <v>15.24552552552558</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.30846846846851</v>
+        <v>18.04204204204211</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.34000000000005</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.155486897974072e-09</v>
+        <v>2.107848451338157e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>6.155486897974072e-09</v>
+        <v>2.107848451338157e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>57.05317747093013</v>
+        <v>56.14507575866939</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.6618786805533, 75.44447626130696]</t>
+          <t>[35.51250515965471, 76.77764635768406]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.335941548497033e-07</v>
+        <v>1.828834992556594e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.335941548497033e-07</v>
+        <v>1.828834992556594e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.893131909370426</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.528342372016657, 2.257921446724196]</t>
+          <t>[1.6918687163476553, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.27675647831893e-13</v>
+        <v>5.10702591327572e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>1.27675647831893e-13</v>
+        <v>5.10702591327572e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>57.74415297076485</v>
+        <v>53.29867314650448</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.36416925780092, 68.12413668372878]</t>
+          <t>[42.46523825559987, 64.1321080374091]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>6.918909889463976e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.310063169057685e-14</v>
+        <v>6.918909889463976e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>15.60892892892896</v>
+        <v>15.06510510510516</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.31191191191195</v>
+        <v>13.6668468468469</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.90594594594598</v>
+        <v>16.46336336336343</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.34000000000005</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.600923281719346e-07</v>
+        <v>2.283826184834581e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.600923281719346e-07</v>
+        <v>2.283826184834581e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.74748100188325</v>
+        <v>50.19014713371009</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.453008192853773, 68.04195381091273]</t>
+          <t>[29.780759430210566, 70.59953483720962]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.18443779922417e-05</v>
+        <v>1.075497043157014e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>2.18443779922417e-05</v>
+        <v>1.075497043157014e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.459184639746966</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.0440793041375036, 2.8742899753564277]</t>
+          <t>[2.0440793041375027, 2.8491320762285817]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>48.96312447498212</v>
+        <v>57.39039780699672</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[38.671128325648375, 59.25512062431587]</t>
+          <t>[46.436341952874685, 68.34445366111876]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.947775274402375e-12</v>
+        <v>9.392486788328824e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.947775274402375e-12</v>
+        <v>9.392486788328824e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.59631631631635</v>
+        <v>13.75705705705711</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.12040040040043</v>
+        <v>12.31369369369374</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.07223223223227</v>
+        <v>15.20042042042048</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.34000000000005</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.208644443521759e-05</v>
+        <v>4.129996344914844e-11</v>
       </c>
       <c r="I5" t="n">
-        <v>5.208644443521759e-05</v>
+        <v>4.129996344914844e-11</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.1479599814714</v>
+        <v>61.40578647668891</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.366522345885663, 62.92939761705714]</t>
+          <t>[44.36101151735299, 78.45056143602483]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.000178920427601259</v>
+        <v>4.257140640007151e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000178920427601259</v>
+        <v>4.257140640007151e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>3.012658420559582</v>
+        <v>2.823974177100736</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.408868841491273, 3.6164479996278907]</t>
+          <t>[2.547237286694427, 3.1007110675070444]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.454214774796128e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.454214774796128e-13</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>58.22235438480802</v>
+        <v>58.61738792652519</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.762259163077175, 70.68244960653887]</t>
+          <t>[48.88492427888265, 68.34985157416773]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.358868738700949e-12</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>3.358868738700949e-12</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>11.62842842842845</v>
+        <v>12.40390390390395</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.48164164164166</v>
+        <v>11.41159159159163</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.77521521521525</v>
+        <v>13.39621621621627</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.640332671561168e-08</v>
+        <v>4.739096722317093e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>8.640332671561168e-08</v>
+        <v>4.739096722317093e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.7228571343253</v>
+        <v>43.20384992226001</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[31.107592072489844, 62.33812219616076]</t>
+          <t>[21.099387184065634, 65.30831266045438]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.852413820697564e-07</v>
+        <v>0.0002839450242748676</v>
       </c>
       <c r="O6" t="n">
-        <v>2.852413820697564e-07</v>
+        <v>0.0002839450242748676</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.00636894577762</v>
+        <v>-2.792526803190928</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.3963163822592355, -2.6164215092960044]</t>
+          <t>[-3.3460005840035443, -2.239053022378311]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.135269821541442e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.135269821541442e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>47.52353662405681</v>
+        <v>58.68110660844117</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[38.05126810044956, 56.99580514766406]</t>
+          <t>[46.61045618754037, 70.75175702934197]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.745892485085278e-13</v>
+        <v>1.001865257421741e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>3.745892485085278e-13</v>
+        <v>1.001865257421741e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>11.85191191191212</v>
+        <v>11.07111111111132</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.31463463463482</v>
+        <v>8.876836836837001</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.38918918918942</v>
+        <v>13.26538538538563</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.256064663390788e-08</v>
+        <v>1.021254400601634e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>1.256064663390788e-08</v>
+        <v>1.021254400601634e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>56.24369345565079</v>
+        <v>51.39499807789367</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[38.936444707376396, 73.55094220392519]</t>
+          <t>[31.76072724500972, 71.02926891077763]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.827779220839545e-08</v>
+        <v>3.698395167672786e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>4.827779220839545e-08</v>
+        <v>3.698395167672786e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>3.037816319687427</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.698184681461504, 3.377447957913351]</t>
+          <t>[2.5975530849501194, 3.4529216552968887]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,27 +1053,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>60.86224541748998</v>
+        <v>64.47034656330173</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.309285288924706, 71.41520554605526]</t>
+          <t>[52.80380373012589, 76.13688939647757]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>12.79411411411434</v>
+        <v>12.91629629629653</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.4551951951954</v>
+        <v>11.22072072072093</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.13303303303328</v>
+        <v>14.61187187187214</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.002115082360255e-06</v>
+        <v>3.93075977211943e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>1.002115082360255e-06</v>
+        <v>3.93075977211943e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>51.17428809211368</v>
+        <v>58.649946431748</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[31.347664574420364, 71.000911609807]</t>
+          <t>[36.46117166585347, 80.83872119764253]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.735798172283978e-06</v>
+        <v>3.108641434934611e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>4.735798172283978e-06</v>
+        <v>3.108641434934611e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>2.937184723176043</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.4717635893108882, 3.4026058570411974]</t>
+          <t>[2.4591846397469648, 3.314553210093736]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.21878257551738</v>
+        <v>62.23492630313124</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.56589103981702, 65.87167411121774]</t>
+          <t>[49.453034996195264, 75.01681761006722]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.818945160105613e-12</v>
+        <v>9.552358903874847e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>3.818945160105613e-12</v>
+        <v>9.552358903874847e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>13.19083083083106</v>
+        <v>13.46486486486511</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.35601601601621</v>
+        <v>11.7692892892895</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.02564564564591</v>
+        <v>15.16044044044072</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.125646630408596e-08</v>
+        <v>1.582164621538595e-09</v>
       </c>
       <c r="I9" t="n">
-        <v>3.125646630408596e-08</v>
+        <v>1.582164621538595e-09</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>49.81561436897812</v>
+        <v>58.11480113793686</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.786015353585597, 67.84521338437065]</t>
+          <t>[38.87913964975563, 77.35046262611809]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.374763645367594e-06</v>
+        <v>2.334747657428693e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.374763645367594e-06</v>
+        <v>2.334747657428693e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>2.72334258058935</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.333395144107734, 3.113290017070966]</t>
+          <t>[2.270500396288118, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>48.70309027359311</v>
+        <v>59.32427376033745</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[38.92990288219251, 58.4762776649937]</t>
+          <t>[49.15202924307378, 69.49651827760113]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.631850458736153e-13</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>4.631850458736153e-13</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>14.0338538538541</v>
+        <v>14.56200200200227</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.49657657657679</v>
+        <v>13.21551551551576</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5711311311314</v>
+        <v>15.90848848848878</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.194785714808688e-09</v>
+        <v>3.747529534470218e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>1.194785714808688e-09</v>
+        <v>3.747529534470218e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>56.21156792200861</v>
+        <v>51.75932137828432</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[36.94970700226878, 75.47342884174843]</t>
+          <t>[29.173961621562164, 74.34468113500648]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.740944825609716e-07</v>
+        <v>3.266936558987688e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>4.740944825609716e-07</v>
+        <v>3.266936558987688e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>2.232763547596349</v>
+        <v>2.459184639746965</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.9057108589343477, 2.5598162362583503]</t>
+          <t>[2.0440793041375027, 2.874289975356427]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>51.94267022017806</v>
+        <v>62.88598962803454</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.09099516073857, 61.794345279617545]</t>
+          <t>[51.463276318506914, 74.30870293756216]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.66053886991358e-14</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>7.66053886991358e-14</v>
+        <v>1.865174681370263e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>15.96784784784813</v>
+        <v>15.16044044044072</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.67851851851877</v>
+        <v>13.51473473473498</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.25717717717748</v>
+        <v>16.80614614614645</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.631357540296754e-05</v>
+        <v>3.877898002713209e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>4.631357540296754e-05</v>
+        <v>3.877898002713209e-12</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.74192743814358</v>
+        <v>57.95965214290364</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[21.41644541767171, 76.06740945861546]</t>
+          <t>[42.059030219479034, 73.86027406632826]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0008068716628921724</v>
+        <v>3.182011987235001e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0008068716628921724</v>
+        <v>3.182011987235001e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.446605690183042</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.9308687580621955, 2.962342622303889]</t>
+          <t>[2.0189214050096567, 2.5723951858222733]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.124078690712849e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.124078690712849e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>63.28468118345029</v>
+        <v>50.86625847963924</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.396872160257544, 77.17249020664303]</t>
+          <t>[42.526884133754606, 59.205632825523864]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.116751632452178e-12</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>7.116751632452178e-12</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>15.12482482482509</v>
+        <v>15.80874874874904</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.09165165165188</v>
+        <v>14.71161161161188</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.1579979979983</v>
+        <v>16.9058858858862</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.248421087675979e-09</v>
+        <v>3.660325932353103e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>3.248421087675979e-09</v>
+        <v>3.660325932353103e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>51.67145350644154</v>
+        <v>46.31846837599171</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[34.128434534493366, 69.21447247838972]</t>
+          <t>[28.2221869114815, 64.41474984050193]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.934068810718117e-07</v>
+        <v>5.477202280612659e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>3.934068810718117e-07</v>
+        <v>5.477202280612659e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>1.956026657190042</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.603816069400195, 2.308237244979888]</t>
+          <t>[1.4025528763774249, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.398881011027697e-14</v>
+        <v>8.215184088555816e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>1.398881011027697e-14</v>
+        <v>8.215184088555816e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>58.22123472598854</v>
+        <v>51.06394860744699</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[48.75262522161407, 67.68984423036302]</t>
+          <t>[40.685116529617, 61.44278068527698]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.910028105266974e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.910028105266974e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>17.05881881881912</v>
+        <v>17.60406406406439</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.67031031031058</v>
+        <v>15.85861861861891</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.44732732732765</v>
+        <v>19.34950950950986</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>7.615129549165545e-08</v>
+        <v>5.384742640779372e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>7.615129549165545e-08</v>
+        <v>5.384742640779372e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.97758232037678</v>
+        <v>49.62176426123337</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[36.87813611489189, 77.07702852586168]</t>
+          <t>[27.172917231630407, 72.07061129083634]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>8.410270864178671e-07</v>
+        <v>5.558514629977473e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>8.410270864178671e-07</v>
+        <v>5.558514629977473e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.767342413731195</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.3522370781217337, 2.182447749340657]</t>
+          <t>[1.3396581285578097, 2.396289891927349]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>5.092415378271653e-11</v>
+        <v>6.736604607482377e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>5.092415378271653e-11</v>
+        <v>6.736604607482377e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>57.11927290355061</v>
+        <v>53.72334313674793</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[45.24851105532488, 68.99003475177634]</t>
+          <t>[41.017955570501954, 66.4287307029939]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.375566327510569e-12</v>
+        <v>6.182498957230109e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>1.375566327510569e-12</v>
+        <v>6.182498957230109e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80266266266297</v>
+        <v>17.50432432432464</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.16620620620649</v>
+        <v>15.40978978979007</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.43911911911945</v>
+        <v>19.59885885885921</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.77000000000043</v>
+        <v>24.91000000000045</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>6.916254446931447e-08</v>
+        <v>4.364599411887937e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>6.916254446931447e-08</v>
+        <v>4.364599411887937e-07</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>56.75172412104313</v>
+        <v>48.6048053368736</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[36.187668591697204, 77.31577965038905]</t>
+          <t>[30.910416519731555, 66.29919415401565]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.405514270080843e-06</v>
+        <v>1.534446156581382e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>1.405514270080843e-06</v>
+        <v>1.534446156581382e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>1.842816111114733</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 2.257921446724196]</t>
+          <t>[1.0880791372793475, 1.9182898084982725]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.533373428230789e-11</v>
+        <v>3.747887777905134e-09</v>
       </c>
       <c r="S14" t="n">
-        <v>1.533373428230789e-11</v>
+        <v>3.747887777905134e-09</v>
       </c>
       <c r="T14" t="n">
-        <v>59.79739330031348</v>
+        <v>63.27170726513511</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[48.02181242092027, 71.57297417970669]</t>
+          <t>[52.30982163365966, 74.23359289661056]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.55573340268711e-13</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.55573340268711e-13</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X14" t="n">
-        <v>17.50512512512543</v>
+        <v>18.9505505505509</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.86866866866895</v>
+        <v>17.30484484484516</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.14158158158192</v>
+        <v>20.59625625625663</v>
       </c>
     </row>
   </sheetData>
